--- a/data/pca/factorExposure/factorExposure_2019-01-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-01-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.109284284069575</v>
+        <v>0.06793345751881795</v>
       </c>
       <c r="C2">
-        <v>-0.003313365982960297</v>
+        <v>-0.03506030012045835</v>
       </c>
       <c r="D2">
-        <v>-0.06812896390812519</v>
+        <v>-0.01653486449604142</v>
       </c>
       <c r="E2">
-        <v>-0.01979711581799335</v>
+        <v>-0.04033596153544881</v>
       </c>
       <c r="F2">
-        <v>-0.1360913087900932</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.1361675718361835</v>
+      </c>
+      <c r="G2">
+        <v>0.06635544320896965</v>
+      </c>
+      <c r="H2">
+        <v>0.04916245276209047</v>
+      </c>
+      <c r="I2">
+        <v>-0.1075802377758521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.2177818364107149</v>
+        <v>0.1596760713304707</v>
       </c>
       <c r="C3">
-        <v>0.1497955217458117</v>
+        <v>-0.1075200249827626</v>
       </c>
       <c r="D3">
-        <v>-0.04240764727302104</v>
+        <v>0.009097830841117073</v>
       </c>
       <c r="E3">
-        <v>-0.003760307067129718</v>
+        <v>0.006251662790496997</v>
       </c>
       <c r="F3">
-        <v>-0.3415418754862405</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.3795316671369035</v>
+      </c>
+      <c r="G3">
+        <v>0.2811102062036604</v>
+      </c>
+      <c r="H3">
+        <v>0.05253290270426354</v>
+      </c>
+      <c r="I3">
+        <v>-0.3660892663286679</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.09878314482606085</v>
+        <v>0.07248966064029894</v>
       </c>
       <c r="C4">
-        <v>0.0356030591286731</v>
+        <v>-0.0482632905567713</v>
       </c>
       <c r="D4">
-        <v>-0.04357320922252992</v>
+        <v>0.01736650000572087</v>
       </c>
       <c r="E4">
-        <v>0.02601873236891023</v>
+        <v>-0.03924753283847564</v>
       </c>
       <c r="F4">
-        <v>-0.07200421529293675</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.07863333922800587</v>
+      </c>
+      <c r="G4">
+        <v>0.03154711788692604</v>
+      </c>
+      <c r="H4">
+        <v>0.04433787586946857</v>
+      </c>
+      <c r="I4">
+        <v>-0.05702013941447202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.02111731846456825</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.009742642763759773</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.005122232371214899</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.005557751588038267</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.008651359603760655</v>
+      </c>
+      <c r="G6">
+        <v>-0.01507973525792068</v>
+      </c>
+      <c r="H6">
+        <v>-0.01862475508105466</v>
+      </c>
+      <c r="I6">
+        <v>0.005560925465879019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.0474596893496721</v>
+        <v>0.03502920246956534</v>
       </c>
       <c r="C7">
-        <v>0.01334898695532571</v>
+        <v>-0.01902267234129277</v>
       </c>
       <c r="D7">
-        <v>-0.04191695536349882</v>
+        <v>0.03697598056850408</v>
       </c>
       <c r="E7">
-        <v>-0.005305402722118272</v>
+        <v>-0.02816184179309512</v>
       </c>
       <c r="F7">
-        <v>-0.05963393617978893</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.04871365370236205</v>
+      </c>
+      <c r="G7">
+        <v>0.05024882814040378</v>
+      </c>
+      <c r="H7">
+        <v>-0.005785589027328617</v>
+      </c>
+      <c r="I7">
+        <v>-0.03567985783176052</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.05381638275024511</v>
+        <v>0.02821179430748138</v>
       </c>
       <c r="C8">
-        <v>0.05588951456587458</v>
+        <v>-0.05313508706498993</v>
       </c>
       <c r="D8">
-        <v>-0.02783922654808359</v>
+        <v>0.01435395778412506</v>
       </c>
       <c r="E8">
-        <v>0.02463738989642006</v>
+        <v>-0.02000462341983747</v>
       </c>
       <c r="F8">
-        <v>-0.06967301273029551</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.07099703678770201</v>
+      </c>
+      <c r="G8">
+        <v>0.04851062537237385</v>
+      </c>
+      <c r="H8">
+        <v>0.03552265474828142</v>
+      </c>
+      <c r="I8">
+        <v>-0.06516330387251877</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.08354749670398041</v>
+        <v>0.06204688120758131</v>
       </c>
       <c r="C9">
-        <v>0.0260865338957427</v>
+        <v>-0.04392274084698032</v>
       </c>
       <c r="D9">
-        <v>-0.04901457510133274</v>
+        <v>0.02077864964035471</v>
       </c>
       <c r="E9">
-        <v>0.0420512890106634</v>
+        <v>-0.03598783609617207</v>
       </c>
       <c r="F9">
-        <v>-0.05959459037074441</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.07898261652175217</v>
+      </c>
+      <c r="G9">
+        <v>0.02617702397226302</v>
+      </c>
+      <c r="H9">
+        <v>0.04170405129646013</v>
+      </c>
+      <c r="I9">
+        <v>-0.03088416049496334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.02159704052333109</v>
+        <v>0.03394410321445821</v>
       </c>
       <c r="C10">
-        <v>-0.1540882435398694</v>
+        <v>0.1615774691507419</v>
       </c>
       <c r="D10">
-        <v>0.06348294565960359</v>
+        <v>-0.01464953968237563</v>
       </c>
       <c r="E10">
-        <v>-0.04249769776911406</v>
+        <v>0.03584462208410833</v>
       </c>
       <c r="F10">
-        <v>-0.068010244320204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.06725875193850185</v>
+      </c>
+      <c r="G10">
+        <v>0.02793752006835704</v>
+      </c>
+      <c r="H10">
+        <v>0.03905285812790186</v>
+      </c>
+      <c r="I10">
+        <v>-0.05363735544964068</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.06088766258243156</v>
+        <v>0.04977752182064028</v>
       </c>
       <c r="C11">
-        <v>0.01639453498186715</v>
+        <v>-0.03292155044346127</v>
       </c>
       <c r="D11">
-        <v>-0.00751517829882067</v>
+        <v>-0.004630419680120654</v>
       </c>
       <c r="E11">
-        <v>-0.00994774897253746</v>
+        <v>-0.009511267426694902</v>
       </c>
       <c r="F11">
-        <v>-0.04105197886127197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.03762960590499163</v>
+      </c>
+      <c r="G11">
+        <v>0.000597588794910346</v>
+      </c>
+      <c r="H11">
+        <v>0.01495775518305892</v>
+      </c>
+      <c r="I11">
+        <v>-0.02688587247251495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.04964603799278776</v>
+        <v>0.04448913698389829</v>
       </c>
       <c r="C12">
-        <v>0.02080107778993275</v>
+        <v>-0.02948070343434248</v>
       </c>
       <c r="D12">
-        <v>-0.005916193178875604</v>
+        <v>0.006493213858010667</v>
       </c>
       <c r="E12">
-        <v>0.008471430547497003</v>
+        <v>-0.01023647333775821</v>
       </c>
       <c r="F12">
-        <v>-0.02865891111675496</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01434429901108163</v>
+      </c>
+      <c r="G12">
+        <v>0.003185634435442467</v>
+      </c>
+      <c r="H12">
+        <v>0.00324407171590318</v>
+      </c>
+      <c r="I12">
+        <v>-0.01527401042403895</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.06243115177070246</v>
+        <v>0.0435450379697374</v>
       </c>
       <c r="C13">
-        <v>0.02733905875382425</v>
+        <v>-0.02906868473196027</v>
       </c>
       <c r="D13">
-        <v>-0.02679909751647127</v>
+        <v>-0.01384885779428914</v>
       </c>
       <c r="E13">
-        <v>-0.03091913709465439</v>
+        <v>-0.01108870266719513</v>
       </c>
       <c r="F13">
-        <v>-0.1085779312746008</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.1029644935627545</v>
+      </c>
+      <c r="G13">
+        <v>0.03694914156193962</v>
+      </c>
+      <c r="H13">
+        <v>0.02577043251337792</v>
+      </c>
+      <c r="I13">
+        <v>-0.06117104632112989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.03596040919888194</v>
+        <v>0.02692041176481363</v>
       </c>
       <c r="C14">
-        <v>0.01996611465548929</v>
+        <v>-0.02281276383632886</v>
       </c>
       <c r="D14">
-        <v>-0.03854114782249152</v>
+        <v>0.006987358328410643</v>
       </c>
       <c r="E14">
-        <v>0.004635393309966046</v>
+        <v>-0.02828768465234662</v>
       </c>
       <c r="F14">
-        <v>-0.02313512719035115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03500513268456747</v>
+      </c>
+      <c r="G14">
+        <v>0.05592465023893457</v>
+      </c>
+      <c r="H14">
+        <v>0.01105035226057846</v>
+      </c>
+      <c r="I14">
+        <v>-0.01762846937819014</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.05217739199836904</v>
+        <v>0.04294806907701643</v>
       </c>
       <c r="C16">
-        <v>0.02410018849698614</v>
+        <v>-0.03526955224527373</v>
       </c>
       <c r="D16">
-        <v>-0.005532575708605932</v>
+        <v>0.0009570375352122029</v>
       </c>
       <c r="E16">
-        <v>-0.00366380582397784</v>
+        <v>-0.007225313955502158</v>
       </c>
       <c r="F16">
-        <v>-0.03381074086004334</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.03421086556562454</v>
+      </c>
+      <c r="G16">
+        <v>0.004981410420609633</v>
+      </c>
+      <c r="H16">
+        <v>0.003989254672219766</v>
+      </c>
+      <c r="I16">
+        <v>-0.02761402189283296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.06812983030971256</v>
+        <v>0.05294690893675168</v>
       </c>
       <c r="C19">
-        <v>0.04748250521399747</v>
+        <v>-0.04634377704526912</v>
       </c>
       <c r="D19">
-        <v>-0.0222682115812734</v>
+        <v>-8.789773359769956e-05</v>
       </c>
       <c r="E19">
-        <v>-0.001728135066470017</v>
+        <v>-0.02130219794270992</v>
       </c>
       <c r="F19">
-        <v>-0.08719512253180145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.09429288267121451</v>
+      </c>
+      <c r="G19">
+        <v>0.0614600438952357</v>
+      </c>
+      <c r="H19">
+        <v>0.009999867614922189</v>
+      </c>
+      <c r="I19">
+        <v>-0.0689058598240862</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.04052876550729823</v>
+        <v>0.01949058029692045</v>
       </c>
       <c r="C20">
-        <v>0.03397362300498991</v>
+        <v>-0.03035659088569643</v>
       </c>
       <c r="D20">
-        <v>-0.03768305544560929</v>
+        <v>0.007065991976197694</v>
       </c>
       <c r="E20">
-        <v>0.01700446511625239</v>
+        <v>-0.02024597474391845</v>
       </c>
       <c r="F20">
-        <v>-0.06241486442394108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.06391542941978196</v>
+      </c>
+      <c r="G20">
+        <v>0.05753868116372775</v>
+      </c>
+      <c r="H20">
+        <v>0.005925402468055492</v>
+      </c>
+      <c r="I20">
+        <v>-0.07579844470547137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.0373118571255926</v>
+        <v>0.03390583000691091</v>
       </c>
       <c r="C21">
-        <v>0.03856630309181341</v>
+        <v>-0.03183510969987472</v>
       </c>
       <c r="D21">
-        <v>-0.01777477436171072</v>
+        <v>0.01321646526363771</v>
       </c>
       <c r="E21">
-        <v>-0.009646483333593203</v>
+        <v>-0.006933549501262062</v>
       </c>
       <c r="F21">
-        <v>-0.1019605819089673</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.07988958117870973</v>
+      </c>
+      <c r="G21">
+        <v>0.02118194742538305</v>
+      </c>
+      <c r="H21">
+        <v>0.0477437213999333</v>
+      </c>
+      <c r="I21">
+        <v>-0.002683048033880746</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.05329172552261661</v>
+        <v>0.04197888596080322</v>
       </c>
       <c r="C24">
-        <v>0.02178641222871365</v>
+        <v>-0.03108271854144766</v>
       </c>
       <c r="D24">
-        <v>-0.01120710129145164</v>
+        <v>0.001545160193518785</v>
       </c>
       <c r="E24">
-        <v>0.0008708507583062497</v>
+        <v>-0.01075724135852251</v>
       </c>
       <c r="F24">
-        <v>-0.04246541618343171</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.03738630872376882</v>
+      </c>
+      <c r="G24">
+        <v>-0.0003994552472871162</v>
+      </c>
+      <c r="H24">
+        <v>0.006697123829390396</v>
+      </c>
+      <c r="I24">
+        <v>-0.02909371377974358</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.05423800161093716</v>
+        <v>0.04838912582406801</v>
       </c>
       <c r="C25">
-        <v>0.01645813911697106</v>
+        <v>-0.02729426225962458</v>
       </c>
       <c r="D25">
-        <v>-0.006864017220540553</v>
+        <v>0.0003472057767501703</v>
       </c>
       <c r="E25">
-        <v>-0.001257370414970394</v>
+        <v>-0.008791606747712229</v>
       </c>
       <c r="F25">
-        <v>-0.03992019273241714</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.04317334269457244</v>
+      </c>
+      <c r="G25">
+        <v>0.000102795345275476</v>
+      </c>
+      <c r="H25">
+        <v>0.01327546259265254</v>
+      </c>
+      <c r="I25">
+        <v>-0.01885211516684351</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.02665157597143176</v>
+        <v>0.01821511066251331</v>
       </c>
       <c r="C26">
-        <v>0.03230200730332458</v>
+        <v>-0.02938915968341669</v>
       </c>
       <c r="D26">
-        <v>-0.02608478655256336</v>
+        <v>-0.003332905786070449</v>
       </c>
       <c r="E26">
-        <v>-0.01825474869611924</v>
+        <v>-0.002631148871910897</v>
       </c>
       <c r="F26">
-        <v>-0.03071089075559215</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.04253736828273297</v>
+      </c>
+      <c r="G26">
+        <v>0.03237559565947083</v>
+      </c>
+      <c r="H26">
+        <v>0.01321914169669773</v>
+      </c>
+      <c r="I26">
+        <v>-0.02107822994427726</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.1216987967732043</v>
+        <v>0.07295775612198457</v>
       </c>
       <c r="C27">
-        <v>0.01776182332888181</v>
+        <v>-0.02665031758951331</v>
       </c>
       <c r="D27">
-        <v>-0.03643463429397487</v>
+        <v>0.005984440979671149</v>
       </c>
       <c r="E27">
-        <v>0.0241373273820112</v>
+        <v>-0.0336948409430702</v>
       </c>
       <c r="F27">
-        <v>-0.0814770490747674</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.06501779570571935</v>
+      </c>
+      <c r="G27">
+        <v>0.02037179617853114</v>
+      </c>
+      <c r="H27">
+        <v>0.02524749066916415</v>
+      </c>
+      <c r="I27">
+        <v>-0.03874259489463391</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.02005276414799595</v>
+        <v>0.04980475732578862</v>
       </c>
       <c r="C28">
-        <v>-0.2294546376140178</v>
+        <v>0.2456587108742012</v>
       </c>
       <c r="D28">
-        <v>0.1036907276680821</v>
+        <v>-0.01363986135076566</v>
       </c>
       <c r="E28">
-        <v>-0.04143418333571929</v>
+        <v>0.05137745375952829</v>
       </c>
       <c r="F28">
-        <v>-0.04884373094754799</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.05807859643188376</v>
+      </c>
+      <c r="G28">
+        <v>0.0364139709640386</v>
+      </c>
+      <c r="H28">
+        <v>0.04192757118200306</v>
+      </c>
+      <c r="I28">
+        <v>-0.07701286752740551</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.02895990112681094</v>
+        <v>0.02359242728445227</v>
       </c>
       <c r="C29">
-        <v>0.01770584220422262</v>
+        <v>-0.01960919871572801</v>
       </c>
       <c r="D29">
-        <v>-0.03753776961344652</v>
+        <v>0.01012254339222335</v>
       </c>
       <c r="E29">
-        <v>0.01656043461104915</v>
+        <v>-0.0287075499542896</v>
       </c>
       <c r="F29">
-        <v>-0.02599603071757532</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03146189656975217</v>
+      </c>
+      <c r="G29">
+        <v>0.05603915002786281</v>
+      </c>
+      <c r="H29">
+        <v>0.01583644472677343</v>
+      </c>
+      <c r="I29">
+        <v>-0.00207927762380068</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.1161544989337859</v>
+        <v>0.08990917424480585</v>
       </c>
       <c r="C30">
-        <v>0.02176007778131973</v>
+        <v>-0.05269685517673137</v>
       </c>
       <c r="D30">
-        <v>-0.03856569801725928</v>
+        <v>-0.03521930711044564</v>
       </c>
       <c r="E30">
-        <v>-0.01029125366093988</v>
+        <v>-0.03346361667504193</v>
       </c>
       <c r="F30">
-        <v>-0.1061769541924143</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.1043667810679745</v>
+      </c>
+      <c r="G30">
+        <v>0.01554110873754608</v>
+      </c>
+      <c r="H30">
+        <v>-0.01073493072141975</v>
+      </c>
+      <c r="I30">
+        <v>-0.02492607748717926</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.06923596669400629</v>
+        <v>0.06074517014117427</v>
       </c>
       <c r="C31">
-        <v>0.01540529559070317</v>
+        <v>-0.02312620954381377</v>
       </c>
       <c r="D31">
-        <v>-0.03251113144776016</v>
+        <v>-0.008992135565668621</v>
       </c>
       <c r="E31">
-        <v>-0.03004315214824193</v>
+        <v>-0.02369157416005989</v>
       </c>
       <c r="F31">
-        <v>0.0371076761328693</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.004944681784905262</v>
+      </c>
+      <c r="G31">
+        <v>0.04803243016347069</v>
+      </c>
+      <c r="H31">
+        <v>0.03013566391042977</v>
+      </c>
+      <c r="I31">
+        <v>-0.01279560947713026</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.07304893902272554</v>
+        <v>0.04299012648673953</v>
       </c>
       <c r="C32">
-        <v>0.03551691288531278</v>
+        <v>-0.04722448971781177</v>
       </c>
       <c r="D32">
-        <v>-0.03540420357544192</v>
+        <v>0.01737326537433579</v>
       </c>
       <c r="E32">
-        <v>0.01175493114750303</v>
+        <v>-0.03554190247082104</v>
       </c>
       <c r="F32">
-        <v>-0.09214206240423108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.08205413770973469</v>
+      </c>
+      <c r="G32">
+        <v>0.04231185782224576</v>
+      </c>
+      <c r="H32">
+        <v>0.02257781890056944</v>
+      </c>
+      <c r="I32">
+        <v>-0.05241292092223961</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.07289260746279705</v>
+        <v>0.05655611286559743</v>
       </c>
       <c r="C33">
-        <v>0.05699642213020537</v>
+        <v>-0.05740056575159482</v>
       </c>
       <c r="D33">
-        <v>-0.03905160622320683</v>
+        <v>-0.01653127023440504</v>
       </c>
       <c r="E33">
-        <v>-0.01492509434620139</v>
+        <v>-0.01403198354852472</v>
       </c>
       <c r="F33">
-        <v>-0.06530525361592522</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.07272427058874277</v>
+      </c>
+      <c r="G33">
+        <v>0.04216341564497905</v>
+      </c>
+      <c r="H33">
+        <v>0.03432892292970413</v>
+      </c>
+      <c r="I33">
+        <v>-0.03033258330535877</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.05248493846883533</v>
+        <v>0.04383232312220441</v>
       </c>
       <c r="C34">
-        <v>0.02059921446476094</v>
+        <v>-0.03480821755893647</v>
       </c>
       <c r="D34">
-        <v>-0.01523631058653</v>
+        <v>0.006140201118906268</v>
       </c>
       <c r="E34">
-        <v>0.001563398599218727</v>
+        <v>-0.01631725777507189</v>
       </c>
       <c r="F34">
-        <v>-0.02755880746778148</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.03322491084844472</v>
+      </c>
+      <c r="G34">
+        <v>0.007040271789861458</v>
+      </c>
+      <c r="H34">
+        <v>0.007797663206656856</v>
+      </c>
+      <c r="I34">
+        <v>-0.02363569766566929</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01766469358473692</v>
+        <v>0.01593462814541227</v>
       </c>
       <c r="C36">
-        <v>0.002517685449053091</v>
+        <v>-0.005751363118165021</v>
       </c>
       <c r="D36">
-        <v>-0.01292709168771433</v>
+        <v>0.004991096468521846</v>
       </c>
       <c r="E36">
-        <v>0.005659160008891571</v>
+        <v>-0.009970167260136758</v>
       </c>
       <c r="F36">
-        <v>-0.01632213009067872</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.02386519098600986</v>
+      </c>
+      <c r="G36">
+        <v>0.03978880112170972</v>
+      </c>
+      <c r="H36">
+        <v>0.01756505749133874</v>
+      </c>
+      <c r="I36">
+        <v>0.008241451802293621</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.04369655143476695</v>
+        <v>0.03476919941041132</v>
       </c>
       <c r="C38">
-        <v>0.01398232595845126</v>
+        <v>-0.01714148318106852</v>
       </c>
       <c r="D38">
-        <v>-0.02382936751248798</v>
+        <v>0.004839623279748127</v>
       </c>
       <c r="E38">
-        <v>0.02070133808273079</v>
+        <v>-0.01260880430520572</v>
       </c>
       <c r="F38">
-        <v>-0.02317693212546421</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.0479305104884683</v>
+      </c>
+      <c r="G38">
+        <v>0.02621235683101117</v>
+      </c>
+      <c r="H38">
+        <v>0.0238083363105638</v>
+      </c>
+      <c r="I38">
+        <v>0.01101303064574351</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.07290799083949052</v>
+        <v>0.05489398453161299</v>
       </c>
       <c r="C39">
-        <v>0.02162095162871341</v>
+        <v>-0.04807431899348023</v>
       </c>
       <c r="D39">
-        <v>-0.02394734388761282</v>
+        <v>-0.003093910482611984</v>
       </c>
       <c r="E39">
-        <v>-0.01456927993058166</v>
+        <v>-0.01905514974128563</v>
       </c>
       <c r="F39">
-        <v>-0.03493795720707859</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.05472523100016488</v>
+      </c>
+      <c r="G39">
+        <v>-0.002404282465904107</v>
+      </c>
+      <c r="H39">
+        <v>0.02237326293711567</v>
+      </c>
+      <c r="I39">
+        <v>-0.00616642142636321</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.07763826953841053</v>
+        <v>0.05578830163503015</v>
       </c>
       <c r="C40">
-        <v>0.0211499858983798</v>
+        <v>-0.04322188116152115</v>
       </c>
       <c r="D40">
-        <v>-0.05601228665503573</v>
+        <v>-0.01907647996596376</v>
       </c>
       <c r="E40">
-        <v>-0.0357566359132906</v>
+        <v>-0.02464593847879913</v>
       </c>
       <c r="F40">
-        <v>-0.1094689146131958</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.09521349274769202</v>
+      </c>
+      <c r="G40">
+        <v>0.03808709042675793</v>
+      </c>
+      <c r="H40">
+        <v>0.02455673406480263</v>
+      </c>
+      <c r="I40">
+        <v>-0.1067988282450291</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.003370904552777704</v>
+        <v>0.003483987026390076</v>
       </c>
       <c r="C41">
-        <v>0.02476329231916019</v>
+        <v>-0.01160306526428466</v>
       </c>
       <c r="D41">
-        <v>-0.03364824799502425</v>
+        <v>0.000540355168805798</v>
       </c>
       <c r="E41">
-        <v>0.00939933754335618</v>
+        <v>-0.01024315032131306</v>
       </c>
       <c r="F41">
-        <v>0.004072353545245829</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.01007578757411877</v>
+      </c>
+      <c r="G41">
+        <v>0.0475895678422103</v>
+      </c>
+      <c r="H41">
+        <v>0.03434198568715778</v>
+      </c>
+      <c r="I41">
+        <v>-0.01441037302545673</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.1731005648433469</v>
+        <v>0.2250977124479367</v>
       </c>
       <c r="C42">
-        <v>0.4815187905279307</v>
+        <v>-0.2558436139750681</v>
       </c>
       <c r="D42">
-        <v>0.7757767161914559</v>
+        <v>-0.0453457564104627</v>
       </c>
       <c r="E42">
-        <v>-0.2803444741358571</v>
+        <v>0.9076579132939636</v>
       </c>
       <c r="F42">
-        <v>0.1013546381684526</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1668479765861531</v>
+      </c>
+      <c r="G42">
+        <v>-0.002710462086284455</v>
+      </c>
+      <c r="H42">
+        <v>-0.007580942867560987</v>
+      </c>
+      <c r="I42">
+        <v>-0.05563090152414909</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.006880118113349655</v>
+        <v>0.008486596492606781</v>
       </c>
       <c r="C43">
-        <v>0.02579806331962161</v>
+        <v>-0.01513544178020435</v>
       </c>
       <c r="D43">
-        <v>-0.03316563327419709</v>
+        <v>-0.002048790026150318</v>
       </c>
       <c r="E43">
-        <v>0.002709942557319653</v>
+        <v>-0.009825388271635989</v>
       </c>
       <c r="F43">
-        <v>-0.02452563724353263</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.02430957440522709</v>
+      </c>
+      <c r="G43">
+        <v>0.03433523683711349</v>
+      </c>
+      <c r="H43">
+        <v>0.01997841900309683</v>
+      </c>
+      <c r="I43">
+        <v>-0.02426858444764705</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.04576730898504002</v>
+        <v>0.03022747588483245</v>
       </c>
       <c r="C44">
-        <v>0.04666100039255073</v>
+        <v>-0.0433298027598257</v>
       </c>
       <c r="D44">
-        <v>-0.04286593736172695</v>
+        <v>0.003906309314792917</v>
       </c>
       <c r="E44">
-        <v>-0.006957127119831995</v>
+        <v>-0.0147570283609002</v>
       </c>
       <c r="F44">
-        <v>-0.1156744858678806</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.1162850892894509</v>
+      </c>
+      <c r="G44">
+        <v>0.09839081839499023</v>
+      </c>
+      <c r="H44">
+        <v>0.04805062764688142</v>
+      </c>
+      <c r="I44">
+        <v>-0.05575841705144523</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.03349384315064253</v>
+        <v>0.02664426193266275</v>
       </c>
       <c r="C46">
-        <v>0.02314323459485219</v>
+        <v>-0.03566214569070899</v>
       </c>
       <c r="D46">
-        <v>-0.03937354410776309</v>
+        <v>-0.001934189427616612</v>
       </c>
       <c r="E46">
-        <v>0.001298892758695534</v>
+        <v>-0.03165590486859921</v>
       </c>
       <c r="F46">
-        <v>-0.02001385436216998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.04388178067434593</v>
+      </c>
+      <c r="G46">
+        <v>0.05893834611919404</v>
+      </c>
+      <c r="H46">
+        <v>0.01298651701798273</v>
+      </c>
+      <c r="I46">
+        <v>-0.00798446240307272</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.09590358659186125</v>
+        <v>0.08721649528764529</v>
       </c>
       <c r="C47">
-        <v>0.007409456224711486</v>
+        <v>-0.01978614331282184</v>
       </c>
       <c r="D47">
-        <v>-0.03038136258018082</v>
+        <v>-0.003790514751119723</v>
       </c>
       <c r="E47">
-        <v>0.005142450869609999</v>
+        <v>-0.02948885852447637</v>
       </c>
       <c r="F47">
-        <v>0.02912225638063411</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.01761685413846974</v>
+      </c>
+      <c r="G47">
+        <v>0.06287687214787882</v>
+      </c>
+      <c r="H47">
+        <v>0.02346011361296532</v>
+      </c>
+      <c r="I47">
+        <v>-0.03439698743232665</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.02164555474593351</v>
+        <v>0.02076974108741277</v>
       </c>
       <c r="C48">
-        <v>0.02144630345633722</v>
+        <v>-0.01787892913190899</v>
       </c>
       <c r="D48">
-        <v>-0.02616777929163292</v>
+        <v>0.00154912406155474</v>
       </c>
       <c r="E48">
-        <v>-0.0001916210433269604</v>
+        <v>-0.01366287675998469</v>
       </c>
       <c r="F48">
-        <v>-0.02180638341089554</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.02603269939000667</v>
+      </c>
+      <c r="G48">
+        <v>0.02780808175648631</v>
+      </c>
+      <c r="H48">
+        <v>0.0155793433889895</v>
+      </c>
+      <c r="I48">
+        <v>-0.01008081606879583</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.09344759304450684</v>
+        <v>0.08871596883099493</v>
       </c>
       <c r="C50">
-        <v>0.03070610837861151</v>
+        <v>-0.03928001101576304</v>
       </c>
       <c r="D50">
-        <v>-0.03412508267129159</v>
+        <v>0.01202655730935245</v>
       </c>
       <c r="E50">
-        <v>-0.004867112271163584</v>
+        <v>-0.02681709248238038</v>
       </c>
       <c r="F50">
-        <v>0.03034559465250512</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.009550943391579079</v>
+      </c>
+      <c r="G50">
+        <v>0.03499656404460982</v>
+      </c>
+      <c r="H50">
+        <v>-0.01131523539952797</v>
+      </c>
+      <c r="I50">
+        <v>0.00583855008305947</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.05905976239928121</v>
+        <v>0.039302932812265</v>
       </c>
       <c r="C51">
-        <v>-0.01412568011009531</v>
+        <v>0.002979317027815555</v>
       </c>
       <c r="D51">
-        <v>-0.02003532757463698</v>
+        <v>-0.01095536312761243</v>
       </c>
       <c r="E51">
-        <v>-0.03538674821781995</v>
+        <v>-0.01112017897535223</v>
       </c>
       <c r="F51">
-        <v>-0.06576157121358377</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.09200866484102915</v>
+      </c>
+      <c r="G51">
+        <v>0.06948738681040571</v>
+      </c>
+      <c r="H51">
+        <v>0.04977824535529971</v>
+      </c>
+      <c r="I51">
+        <v>-0.02977312033972337</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1368211946343873</v>
+        <v>0.1254285344361447</v>
       </c>
       <c r="C53">
-        <v>0.009329151616993469</v>
+        <v>-0.03692041085329771</v>
       </c>
       <c r="D53">
-        <v>-0.05725038452098317</v>
+        <v>-0.003986380410981579</v>
       </c>
       <c r="E53">
-        <v>-0.001262109547542497</v>
+        <v>-0.05568916391920092</v>
       </c>
       <c r="F53">
-        <v>0.06183817313552432</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.04816804276134932</v>
+      </c>
+      <c r="G53">
+        <v>0.01241729225620709</v>
+      </c>
+      <c r="H53">
+        <v>0.02917915752702177</v>
+      </c>
+      <c r="I53">
+        <v>-0.04160003820879803</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.02996640657474874</v>
+        <v>0.02758234787054141</v>
       </c>
       <c r="C54">
-        <v>0.00411609106093161</v>
+        <v>-0.006758228944754576</v>
       </c>
       <c r="D54">
-        <v>-0.03448904317624196</v>
+        <v>0.005506734134975841</v>
       </c>
       <c r="E54">
-        <v>0.0087541490454683</v>
+        <v>-0.02972525538474372</v>
       </c>
       <c r="F54">
-        <v>-0.02503988464932873</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.02925342953373771</v>
+      </c>
+      <c r="G54">
+        <v>0.05646284390044772</v>
+      </c>
+      <c r="H54">
+        <v>0.03116098070247542</v>
+      </c>
+      <c r="I54">
+        <v>-0.003983564899512294</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1055207919354832</v>
+        <v>0.09759105164052391</v>
       </c>
       <c r="C55">
-        <v>-0.007438835595553199</v>
+        <v>-0.03039499533568841</v>
       </c>
       <c r="D55">
-        <v>-0.02742503201206901</v>
+        <v>0.01385521815000218</v>
       </c>
       <c r="E55">
-        <v>0.04222333082181184</v>
+        <v>-0.03749607465161042</v>
       </c>
       <c r="F55">
-        <v>0.01904983148535188</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.035867149063192</v>
+      </c>
+      <c r="G55">
+        <v>0.02043902022178655</v>
+      </c>
+      <c r="H55">
+        <v>-0.01181013152307703</v>
+      </c>
+      <c r="I55">
+        <v>-0.0213608240509583</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1714471482949542</v>
+        <v>0.1651265912846938</v>
       </c>
       <c r="C56">
-        <v>-0.04486036115312626</v>
+        <v>-0.01826024270182423</v>
       </c>
       <c r="D56">
-        <v>-0.07545913800227232</v>
+        <v>0.0002531895213158227</v>
       </c>
       <c r="E56">
-        <v>0.03542606671092974</v>
+        <v>-0.08856000490918947</v>
       </c>
       <c r="F56">
-        <v>0.1053506526722752</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.09336758187550598</v>
+      </c>
+      <c r="G56">
+        <v>-0.04038043517942684</v>
+      </c>
+      <c r="H56">
+        <v>-0.00594694729796651</v>
+      </c>
+      <c r="I56">
+        <v>-0.04590221824536829</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.08683976786245783</v>
+        <v>0.06806165279933114</v>
       </c>
       <c r="C57">
-        <v>0.02267487769351184</v>
+        <v>-0.03190215478062591</v>
       </c>
       <c r="D57">
-        <v>-0.02892332704583342</v>
+        <v>-0.01877778751991504</v>
       </c>
       <c r="E57">
-        <v>-0.03131372516463057</v>
+        <v>-0.005018973658128329</v>
       </c>
       <c r="F57">
-        <v>-0.04143977428954966</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.06715128326133277</v>
+      </c>
+      <c r="G57">
+        <v>0.0212938901646163</v>
+      </c>
+      <c r="H57">
+        <v>0.01777254699450305</v>
+      </c>
+      <c r="I57">
+        <v>-0.02511074516523586</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.1985152051168755</v>
+        <v>0.2094644169884444</v>
       </c>
       <c r="C58">
-        <v>0.03873245064517466</v>
+        <v>-0.1046809485282369</v>
       </c>
       <c r="D58">
-        <v>-0.03873022353094718</v>
+        <v>-0.08767581088552215</v>
       </c>
       <c r="E58">
-        <v>-0.05656836392685207</v>
+        <v>0.01537187001236603</v>
       </c>
       <c r="F58">
-        <v>-0.121106232360889</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.2755931163883384</v>
+      </c>
+      <c r="G58">
+        <v>0.3550532617318609</v>
+      </c>
+      <c r="H58">
+        <v>-0.3519081329828713</v>
+      </c>
+      <c r="I58">
+        <v>0.6927393267436615</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.02004187026681903</v>
+        <v>0.04825074571473097</v>
       </c>
       <c r="C59">
-        <v>-0.1893618726858982</v>
+        <v>0.2003080838740074</v>
       </c>
       <c r="D59">
-        <v>0.05613741285592265</v>
+        <v>-0.02577937564198445</v>
       </c>
       <c r="E59">
-        <v>-0.027309799190184</v>
+        <v>0.01709547345389178</v>
       </c>
       <c r="F59">
-        <v>-0.05115663572468308</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.06937829126119699</v>
+      </c>
+      <c r="G59">
+        <v>-0.004483585383858848</v>
+      </c>
+      <c r="H59">
+        <v>0.01754507140633401</v>
+      </c>
+      <c r="I59">
+        <v>-0.01778859775634462</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1856355430155448</v>
+        <v>0.1904285152110899</v>
       </c>
       <c r="C60">
-        <v>-0.08036463469574519</v>
+        <v>0.05099090936569852</v>
       </c>
       <c r="D60">
-        <v>-0.001904698584257083</v>
+        <v>-0.05268605991008667</v>
       </c>
       <c r="E60">
-        <v>-0.08428459379263911</v>
+        <v>-0.009118145954790106</v>
       </c>
       <c r="F60">
-        <v>-0.1755142171048847</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.2007799827507649</v>
+      </c>
+      <c r="G60">
+        <v>-0.3166491662488073</v>
+      </c>
+      <c r="H60">
+        <v>0.03716975681808071</v>
+      </c>
+      <c r="I60">
+        <v>0.0294889617889026</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.04379852096646902</v>
+        <v>0.03879622256249232</v>
       </c>
       <c r="C61">
-        <v>0.01445984066012468</v>
+        <v>-0.03196999279991771</v>
       </c>
       <c r="D61">
-        <v>-0.01103892713269905</v>
+        <v>0.002715123024202862</v>
       </c>
       <c r="E61">
-        <v>0.002608056571211063</v>
+        <v>-0.009725998555269323</v>
       </c>
       <c r="F61">
-        <v>-0.03250232423878018</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03653614382488769</v>
+      </c>
+      <c r="G61">
+        <v>-0.00550310583057575</v>
+      </c>
+      <c r="H61">
+        <v>0.01449250632210926</v>
+      </c>
+      <c r="I61">
+        <v>0.006890310587804212</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.04356856022070691</v>
+        <v>0.0313987114597315</v>
       </c>
       <c r="C63">
-        <v>0.01455439936736856</v>
+        <v>-0.02382928868591356</v>
       </c>
       <c r="D63">
-        <v>-0.02410497146757056</v>
+        <v>-0.0009527707333516364</v>
       </c>
       <c r="E63">
-        <v>-0.008215270151949871</v>
+        <v>-0.01467672661964074</v>
       </c>
       <c r="F63">
-        <v>-0.03185678830613051</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02779054170788996</v>
+      </c>
+      <c r="G63">
+        <v>0.05040257109818252</v>
+      </c>
+      <c r="H63">
+        <v>0.002074564060550196</v>
+      </c>
+      <c r="I63">
+        <v>-0.03422402414085671</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.06579670614563364</v>
+        <v>0.05679936545103884</v>
       </c>
       <c r="C64">
-        <v>0.02443577406293867</v>
+        <v>-0.03271233535740317</v>
       </c>
       <c r="D64">
-        <v>-0.02205156869259634</v>
+        <v>0.01201782968031775</v>
       </c>
       <c r="E64">
-        <v>0.02796552967931062</v>
+        <v>-0.0205816242811399</v>
       </c>
       <c r="F64">
-        <v>-0.03234048064669708</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.03885818491656574</v>
+      </c>
+      <c r="G64">
+        <v>0.02940035056230946</v>
+      </c>
+      <c r="H64">
+        <v>0.05303091995281106</v>
+      </c>
+      <c r="I64">
+        <v>-0.03693256179265599</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.02313411694948214</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.009816612019491433</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.005651371973514343</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.005998202562024659</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.005256235117663882</v>
+      </c>
+      <c r="G65">
+        <v>-0.01921076414186074</v>
+      </c>
+      <c r="H65">
+        <v>-0.01701766245555098</v>
+      </c>
+      <c r="I65">
+        <v>0.004950115661862591</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.08116329044308677</v>
+        <v>0.06783644969985661</v>
       </c>
       <c r="C66">
-        <v>0.0300580941847397</v>
+        <v>-0.05702828607142145</v>
       </c>
       <c r="D66">
-        <v>-0.0479325773762079</v>
+        <v>-0.01000961497804644</v>
       </c>
       <c r="E66">
-        <v>-0.001224484453704149</v>
+        <v>-0.04733581833382108</v>
       </c>
       <c r="F66">
-        <v>-0.0726051942170745</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.06725333018642998</v>
+      </c>
+      <c r="G66">
+        <v>-0.006790859766813316</v>
+      </c>
+      <c r="H66">
+        <v>0.01040169358194431</v>
+      </c>
+      <c r="I66">
+        <v>-0.03980274204212999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.05509399281101797</v>
+        <v>0.04726845578896652</v>
       </c>
       <c r="C67">
-        <v>-0.008925006943282557</v>
+        <v>0.0007842199036090159</v>
       </c>
       <c r="D67">
-        <v>-0.007047523291141835</v>
+        <v>-0.001318103293148773</v>
       </c>
       <c r="E67">
-        <v>0.007403113810618187</v>
+        <v>-0.01048414722212521</v>
       </c>
       <c r="F67">
-        <v>-0.01794259854507839</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.03633804333970267</v>
+      </c>
+      <c r="G67">
+        <v>0.008665232135052109</v>
+      </c>
+      <c r="H67">
+        <v>0.03667146437790413</v>
+      </c>
+      <c r="I67">
+        <v>0.02463311111877618</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.03637850115245923</v>
+        <v>0.05959139801702959</v>
       </c>
       <c r="C68">
-        <v>-0.2237483653376521</v>
+        <v>0.2359999917265434</v>
       </c>
       <c r="D68">
-        <v>0.0935331416537686</v>
+        <v>-0.0270591845163229</v>
       </c>
       <c r="E68">
-        <v>-0.03867516041964641</v>
+        <v>0.03784289289629399</v>
       </c>
       <c r="F68">
-        <v>-0.04432022536257219</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.05111020080632463</v>
+      </c>
+      <c r="G68">
+        <v>0.01667051022354731</v>
+      </c>
+      <c r="H68">
+        <v>-0.003164010552414945</v>
+      </c>
+      <c r="I68">
+        <v>-0.03961331823698621</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.07926367725367631</v>
+        <v>0.07351773678978626</v>
       </c>
       <c r="C69">
-        <v>0.003079384287485059</v>
+        <v>-0.02011833401921522</v>
       </c>
       <c r="D69">
-        <v>-0.02965636011335642</v>
+        <v>-0.005204458531305533</v>
       </c>
       <c r="E69">
-        <v>0.0008805850828141348</v>
+        <v>-0.03203507338309052</v>
       </c>
       <c r="F69">
-        <v>0.01795544677660837</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.005182680826629624</v>
+      </c>
+      <c r="G69">
+        <v>0.03562192844959211</v>
+      </c>
+      <c r="H69">
+        <v>0.01961940681427156</v>
+      </c>
+      <c r="I69">
+        <v>-0.01705274089858375</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.03053491440200875</v>
+        <v>0.0544673445774825</v>
       </c>
       <c r="C71">
-        <v>-0.2674487037421537</v>
+        <v>0.2572282901254089</v>
       </c>
       <c r="D71">
-        <v>0.1098569220604929</v>
+        <v>-0.03199447428427907</v>
       </c>
       <c r="E71">
-        <v>-0.08317799537843701</v>
+        <v>0.06515873543965191</v>
       </c>
       <c r="F71">
-        <v>-0.0792869606629604</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.07154652098888652</v>
+      </c>
+      <c r="G71">
+        <v>0.02408643822826301</v>
+      </c>
+      <c r="H71">
+        <v>0.02267059301529279</v>
+      </c>
+      <c r="I71">
+        <v>-0.04900638199603852</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.130168967682662</v>
+        <v>0.124699356225957</v>
       </c>
       <c r="C72">
-        <v>-0.02974255652909088</v>
+        <v>-0.03216133888265472</v>
       </c>
       <c r="D72">
-        <v>-0.04465608364057031</v>
+        <v>-0.003025419635982833</v>
       </c>
       <c r="E72">
-        <v>0.0005302348708388485</v>
+        <v>-0.06925933614937106</v>
       </c>
       <c r="F72">
-        <v>-0.06640112476866296</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.07997452080864641</v>
+      </c>
+      <c r="G72">
+        <v>-0.03522766367794861</v>
+      </c>
+      <c r="H72">
+        <v>-0.03644651058452689</v>
+      </c>
+      <c r="I72">
+        <v>0.1222047009061834</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.278671607650789</v>
+        <v>0.2705586601598881</v>
       </c>
       <c r="C73">
-        <v>-0.1470809417279588</v>
+        <v>0.07160607120190687</v>
       </c>
       <c r="D73">
-        <v>0.0647486712800657</v>
+        <v>-0.09099333177827174</v>
       </c>
       <c r="E73">
-        <v>-0.1332572574219249</v>
+        <v>0.03841995870256512</v>
       </c>
       <c r="F73">
-        <v>-0.3359724908714347</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.3115619121501528</v>
+      </c>
+      <c r="G73">
+        <v>-0.534443864848213</v>
+      </c>
+      <c r="H73">
+        <v>-0.01167176154743908</v>
+      </c>
+      <c r="I73">
+        <v>0.1101409166399012</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1541990603610796</v>
+        <v>0.1499029433939423</v>
       </c>
       <c r="C74">
-        <v>-0.00132101789138432</v>
+        <v>-0.03325931263532217</v>
       </c>
       <c r="D74">
-        <v>-0.04418220037844518</v>
+        <v>-0.01117611763900862</v>
       </c>
       <c r="E74">
-        <v>-0.006143942225010812</v>
+        <v>-0.05238401579065199</v>
       </c>
       <c r="F74">
-        <v>0.04968095532695267</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.06616329520788132</v>
+      </c>
+      <c r="G74">
+        <v>-0.02747357285099511</v>
+      </c>
+      <c r="H74">
+        <v>-0.006235010056292518</v>
+      </c>
+      <c r="I74">
+        <v>-0.0686452030901286</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2307592391557578</v>
+        <v>0.2465777381838123</v>
       </c>
       <c r="C75">
-        <v>-0.03283151618793959</v>
+        <v>-0.02172619229299852</v>
       </c>
       <c r="D75">
-        <v>-0.0776750671893877</v>
+        <v>-0.02769782869024063</v>
       </c>
       <c r="E75">
-        <v>-0.001050310659883013</v>
+        <v>-0.1165503812518512</v>
       </c>
       <c r="F75">
-        <v>0.1478510244836333</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1462052209926161</v>
+      </c>
+      <c r="G75">
+        <v>-0.01320379279297476</v>
+      </c>
+      <c r="H75">
+        <v>0.01346206616752267</v>
+      </c>
+      <c r="I75">
+        <v>-0.04825207747252621</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.248967509258722</v>
+        <v>0.2638400596787243</v>
       </c>
       <c r="C76">
-        <v>-0.06781176522764074</v>
+        <v>-0.006845502335132959</v>
       </c>
       <c r="D76">
-        <v>-0.07932324971267703</v>
+        <v>0.01265803620210245</v>
       </c>
       <c r="E76">
-        <v>0.06929507749898091</v>
+        <v>-0.139062952170651</v>
       </c>
       <c r="F76">
-        <v>0.1338647287644007</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.181614476973069</v>
+      </c>
+      <c r="G76">
+        <v>-0.04080327273336843</v>
+      </c>
+      <c r="H76">
+        <v>-0.05693707756801629</v>
+      </c>
+      <c r="I76">
+        <v>-0.05361040675809902</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1355459476138604</v>
+        <v>0.1201474783332628</v>
       </c>
       <c r="C77">
-        <v>0.06407569523236874</v>
+        <v>-0.07374352981044673</v>
       </c>
       <c r="D77">
-        <v>-0.01088719768238129</v>
+        <v>-0.004496779017961375</v>
       </c>
       <c r="E77">
-        <v>-0.01597954966426896</v>
+        <v>0.03425546581645304</v>
       </c>
       <c r="F77">
-        <v>-0.1580730487898271</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.1596090370704004</v>
+      </c>
+      <c r="G77">
+        <v>0.2092362706063453</v>
+      </c>
+      <c r="H77">
+        <v>-0.04100106029874132</v>
+      </c>
+      <c r="I77">
+        <v>-0.2419460278336274</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.09895546320723961</v>
+        <v>0.07251704378205713</v>
       </c>
       <c r="C78">
-        <v>0.07572621473935791</v>
+        <v>-0.07613648590049546</v>
       </c>
       <c r="D78">
-        <v>-0.008851543953765214</v>
+        <v>0.00786169596434525</v>
       </c>
       <c r="E78">
-        <v>0.005466064995190696</v>
+        <v>-0.006898854688018337</v>
       </c>
       <c r="F78">
-        <v>-0.0470635855656501</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.06662985587840244</v>
+      </c>
+      <c r="G78">
+        <v>0.01748155713324737</v>
+      </c>
+      <c r="H78">
+        <v>0.0168469246589906</v>
+      </c>
+      <c r="I78">
+        <v>-0.04603146567876668</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.1001277800434705</v>
+        <v>0.1354016367365134</v>
       </c>
       <c r="C80">
-        <v>0.003637371429947677</v>
+        <v>0.08307657189902254</v>
       </c>
       <c r="D80">
-        <v>0.3327391338987666</v>
+        <v>0.972666416535886</v>
       </c>
       <c r="E80">
-        <v>0.9075290628138203</v>
+        <v>0.0588057163501859</v>
       </c>
       <c r="F80">
-        <v>-0.1182103820162366</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.0452084838846595</v>
+      </c>
+      <c r="G80">
+        <v>-0.03000767528831199</v>
+      </c>
+      <c r="H80">
+        <v>0.04117749193925822</v>
+      </c>
+      <c r="I80">
+        <v>0.0957126279026773</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1568831437250215</v>
+        <v>0.180922418073068</v>
       </c>
       <c r="C81">
-        <v>-0.02156868874293921</v>
+        <v>-0.007640637757964389</v>
       </c>
       <c r="D81">
-        <v>-0.04752269108004029</v>
+        <v>-0.006497695437688836</v>
       </c>
       <c r="E81">
-        <v>0.01901540309877918</v>
+        <v>-0.08760995619559135</v>
       </c>
       <c r="F81">
-        <v>0.1768868717394443</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1585321428991522</v>
+      </c>
+      <c r="G81">
+        <v>0.003764511102983852</v>
+      </c>
+      <c r="H81">
+        <v>-0.02640886014091939</v>
+      </c>
+      <c r="I81">
+        <v>-0.01301659933414076</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.09648367564317825</v>
+        <v>0.06927340590341217</v>
       </c>
       <c r="C83">
-        <v>0.08851293019815251</v>
+        <v>-0.05637073008407251</v>
       </c>
       <c r="D83">
-        <v>0.02602806065337146</v>
+        <v>-0.01218398051804209</v>
       </c>
       <c r="E83">
-        <v>-0.04420170885102233</v>
+        <v>0.03553466132820803</v>
       </c>
       <c r="F83">
-        <v>-0.008138926828127108</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.04545293805147451</v>
+      </c>
+      <c r="G83">
+        <v>0.05103292054205656</v>
+      </c>
+      <c r="H83">
+        <v>0.06308736916350992</v>
+      </c>
+      <c r="I83">
+        <v>-0.05298406324588809</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.2395735639662706</v>
+        <v>0.2503752750526673</v>
       </c>
       <c r="C85">
-        <v>0.007669681413757326</v>
+        <v>-0.0494417413390304</v>
       </c>
       <c r="D85">
-        <v>-0.06919518559994838</v>
+        <v>-0.005114410805286414</v>
       </c>
       <c r="E85">
-        <v>0.06230968101004202</v>
+        <v>-0.1111199005148725</v>
       </c>
       <c r="F85">
-        <v>0.1550869870869045</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1825994551268402</v>
+      </c>
+      <c r="G85">
+        <v>0.01195497651001922</v>
+      </c>
+      <c r="H85">
+        <v>-0.02534764970937494</v>
+      </c>
+      <c r="I85">
+        <v>-0.07517984380816257</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.04155842916673921</v>
+        <v>0.02792434589455166</v>
       </c>
       <c r="C86">
-        <v>0.04674405996000849</v>
+        <v>-0.05372212905409633</v>
       </c>
       <c r="D86">
-        <v>-0.03382985494895356</v>
+        <v>0.0003833012659571047</v>
       </c>
       <c r="E86">
-        <v>-0.007455038162920797</v>
+        <v>-0.01615870363221751</v>
       </c>
       <c r="F86">
-        <v>-0.06633344554804685</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.08005634758576562</v>
+      </c>
+      <c r="G86">
+        <v>0.0620268383809821</v>
+      </c>
+      <c r="H86">
+        <v>0.002793392968582871</v>
+      </c>
+      <c r="I86">
+        <v>-0.05441662249864312</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01740791279645058</v>
+        <v>0.02799882564086001</v>
       </c>
       <c r="C87">
-        <v>-0.03683526635074612</v>
+        <v>0.003034144773999228</v>
       </c>
       <c r="D87">
-        <v>0.008603812599779792</v>
+        <v>0.00441977880348318</v>
       </c>
       <c r="E87">
-        <v>-0.007486221680683114</v>
+        <v>0.004020822401655796</v>
       </c>
       <c r="F87">
-        <v>-0.09371150971906411</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.09587414780685044</v>
+      </c>
+      <c r="G87">
+        <v>0.02284410216449565</v>
+      </c>
+      <c r="H87">
+        <v>-0.01751663125797374</v>
+      </c>
+      <c r="I87">
+        <v>-0.02856361889254062</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.02800229344971825</v>
+        <v>0.03299000051746534</v>
       </c>
       <c r="C88">
-        <v>0.02213503186942234</v>
+        <v>-0.0092352896518152</v>
       </c>
       <c r="D88">
-        <v>-0.01280526611872852</v>
+        <v>0.00654367207515438</v>
       </c>
       <c r="E88">
-        <v>0.02332295781865011</v>
+        <v>-0.004237409527394111</v>
       </c>
       <c r="F88">
-        <v>0.01314671771602244</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01424716390430495</v>
+      </c>
+      <c r="G88">
+        <v>0.02853289678376882</v>
+      </c>
+      <c r="H88">
+        <v>0.04209580310824847</v>
+      </c>
+      <c r="I88">
+        <v>-0.006611304915067774</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.03342688561301974</v>
+        <v>0.08544875625853084</v>
       </c>
       <c r="C89">
-        <v>-0.3374435802681644</v>
+        <v>0.3877104137443756</v>
       </c>
       <c r="D89">
-        <v>0.182681781899749</v>
+        <v>-0.06149475803444252</v>
       </c>
       <c r="E89">
-        <v>-0.08894548118100443</v>
+        <v>0.07400305798211791</v>
       </c>
       <c r="F89">
-        <v>-0.003955306402498809</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.03614516547526106</v>
+      </c>
+      <c r="G89">
+        <v>0.1048192556975427</v>
+      </c>
+      <c r="H89">
+        <v>0.03966662639318313</v>
+      </c>
+      <c r="I89">
+        <v>-0.08977327339512856</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.02533956024952255</v>
+        <v>0.05488459883590601</v>
       </c>
       <c r="C90">
-        <v>-0.2813095667039649</v>
+        <v>0.3283857027369705</v>
       </c>
       <c r="D90">
-        <v>0.1503893883617393</v>
+        <v>-0.03470393454400136</v>
       </c>
       <c r="E90">
-        <v>-0.03211195776972264</v>
+        <v>0.06787994492554607</v>
       </c>
       <c r="F90">
-        <v>-0.06715358339548484</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.04093971556689947</v>
+      </c>
+      <c r="G90">
+        <v>0.05238973589037771</v>
+      </c>
+      <c r="H90">
+        <v>0.01231382924375194</v>
+      </c>
+      <c r="I90">
+        <v>-0.06649864306650674</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2719836544679501</v>
+        <v>0.2893751143503241</v>
       </c>
       <c r="C91">
-        <v>0.007189766018775674</v>
+        <v>-0.05080438740384476</v>
       </c>
       <c r="D91">
-        <v>-0.07770209442303935</v>
+        <v>-0.01442134909881065</v>
       </c>
       <c r="E91">
-        <v>0.05241284934655058</v>
+        <v>-0.1078799502006943</v>
       </c>
       <c r="F91">
-        <v>0.2726187892436259</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.2711305791500768</v>
+      </c>
+      <c r="G91">
+        <v>-0.009188792743742177</v>
+      </c>
+      <c r="H91">
+        <v>-0.04761557972620507</v>
+      </c>
+      <c r="I91">
+        <v>-0.06163942254075343</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.05703199517275437</v>
+        <v>0.1224835908068706</v>
       </c>
       <c r="C92">
-        <v>-0.3030668331210913</v>
+        <v>0.3810073865499659</v>
       </c>
       <c r="D92">
-        <v>0.2320350121412064</v>
+        <v>-0.02345131651911495</v>
       </c>
       <c r="E92">
-        <v>-0.01425130625595299</v>
+        <v>0.09126636685761348</v>
       </c>
       <c r="F92">
-        <v>0.1185105087645952</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1202385817974226</v>
+      </c>
+      <c r="G92">
+        <v>0.3276402545993399</v>
+      </c>
+      <c r="H92">
+        <v>-0.06170183205660561</v>
+      </c>
+      <c r="I92">
+        <v>0.1177733066991058</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.01941966124930329</v>
+        <v>0.07111857768539966</v>
       </c>
       <c r="C93">
-        <v>-0.335256296143672</v>
+        <v>0.3980206552578109</v>
       </c>
       <c r="D93">
-        <v>0.1945977472218841</v>
+        <v>-0.05423314262956181</v>
       </c>
       <c r="E93">
-        <v>-0.05000901163003442</v>
+        <v>0.1086902713358442</v>
       </c>
       <c r="F93">
-        <v>0.008372043204372126</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.003541332781278249</v>
+      </c>
+      <c r="G93">
+        <v>0.028358795282181</v>
+      </c>
+      <c r="H93">
+        <v>0.05076325061397064</v>
+      </c>
+      <c r="I93">
+        <v>-0.004751502105153045</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2774956977192851</v>
+        <v>0.3115054856808042</v>
       </c>
       <c r="C94">
-        <v>-0.1184410963119956</v>
+        <v>0.04212702072171071</v>
       </c>
       <c r="D94">
-        <v>-0.005885118122251008</v>
+        <v>-0.04402364136169681</v>
       </c>
       <c r="E94">
-        <v>0.0256845764811245</v>
+        <v>-0.1195566999306931</v>
       </c>
       <c r="F94">
-        <v>0.3400133982667516</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.3107135335912424</v>
+      </c>
+      <c r="G94">
+        <v>0.04700966583166414</v>
+      </c>
+      <c r="H94">
+        <v>-0.2183654574159213</v>
+      </c>
+      <c r="I94">
+        <v>-0.008625407595048103</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1623807315799916</v>
+        <v>0.1303979548548911</v>
       </c>
       <c r="C95">
-        <v>0.03502104917201471</v>
+        <v>-0.05544234466859362</v>
       </c>
       <c r="D95">
-        <v>-0.04407768604481632</v>
+        <v>-0.08312154479002121</v>
       </c>
       <c r="E95">
-        <v>-0.04964678581945554</v>
+        <v>-0.03125531627819066</v>
       </c>
       <c r="F95">
-        <v>0.3737769399362418</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.1095608791175416</v>
+      </c>
+      <c r="G95">
+        <v>0.1312113172556277</v>
+      </c>
+      <c r="H95">
+        <v>0.8717500819462308</v>
+      </c>
+      <c r="I95">
+        <v>0.3406921513784779</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2102631996600612</v>
+        <v>0.209373391233519</v>
       </c>
       <c r="C98">
-        <v>-0.0911024179454101</v>
+        <v>0.06352578129682639</v>
       </c>
       <c r="D98">
-        <v>0.03932225946527588</v>
+        <v>-0.06519064648041592</v>
       </c>
       <c r="E98">
-        <v>-0.09570399235651866</v>
+        <v>0.0266538137950392</v>
       </c>
       <c r="F98">
-        <v>-0.08391692209802024</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.1698161255794182</v>
+      </c>
+      <c r="G98">
+        <v>-0.3451597296537405</v>
+      </c>
+      <c r="H98">
+        <v>0.02832466597127455</v>
+      </c>
+      <c r="I98">
+        <v>0.1127544668932988</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.02891408190651956</v>
+        <v>0.01782322121171829</v>
       </c>
       <c r="C101">
-        <v>0.01701244765110995</v>
+        <v>-0.03056508594815615</v>
       </c>
       <c r="D101">
-        <v>-0.03847327633415434</v>
+        <v>0.006241350156607985</v>
       </c>
       <c r="E101">
-        <v>0.01701258899479837</v>
+        <v>-0.03594857039711324</v>
       </c>
       <c r="F101">
-        <v>-0.02688556431195738</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.06276209523156266</v>
+      </c>
+      <c r="G101">
+        <v>0.1103797717217445</v>
+      </c>
+      <c r="H101">
+        <v>-0.02826444852625224</v>
+      </c>
+      <c r="I101">
+        <v>0.1173429330852644</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1059251143887079</v>
+        <v>0.1178921776150743</v>
       </c>
       <c r="C102">
-        <v>0.01266888862336055</v>
+        <v>-0.02613500318733525</v>
       </c>
       <c r="D102">
-        <v>-0.04550737042644985</v>
+        <v>0.005925185791084301</v>
       </c>
       <c r="E102">
-        <v>0.04527561877067855</v>
+        <v>-0.05422882053347246</v>
       </c>
       <c r="F102">
-        <v>0.09906847175651745</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.1153138285909147</v>
+      </c>
+      <c r="G102">
+        <v>0.001780609278380497</v>
+      </c>
+      <c r="H102">
+        <v>-0.003199785326118821</v>
+      </c>
+      <c r="I102">
+        <v>-0.05670379430983279</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.01965062817731694</v>
+        <v>0.02861911227096663</v>
       </c>
       <c r="C103">
-        <v>0.006647245874593943</v>
+        <v>-0.007923555032371883</v>
       </c>
       <c r="D103">
-        <v>-0.01558395802732405</v>
+        <v>0.009219036813402557</v>
       </c>
       <c r="E103">
-        <v>0.007078473779797406</v>
+        <v>-0.01828392145632291</v>
       </c>
       <c r="F103">
-        <v>0.03741751467734459</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.02726079892684847</v>
+      </c>
+      <c r="G103">
+        <v>0.0193797791996744</v>
+      </c>
+      <c r="H103">
+        <v>0.007812521673819713</v>
+      </c>
+      <c r="I103">
+        <v>-0.0129016915331631</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
